--- a/data/main.xlsx
+++ b/data/main.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Vi La\suyhao\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F3691-1928-495F-9D7A-4C7120693778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,25 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>tentram</t>
-  </si>
-  <si>
-    <t>khaithachug</t>
-  </si>
-  <si>
-    <t>Khaithachug</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
   <si>
     <t>123.29.60.4</t>
   </si>
@@ -128,9 +112,6 @@
     <t xml:space="preserve"> 123.29.60.38</t>
   </si>
   <si>
-    <t>tenhethong</t>
-  </si>
-  <si>
     <t>HGI00TPT_ASR9010</t>
   </si>
   <si>
@@ -165,25 +146,420 @@
   </si>
   <si>
     <t>HGI03VVN_ASR9010</t>
+  </si>
+  <si>
+    <t>Port trống 10G</t>
+  </si>
+  <si>
+    <t>Port trống 1G</t>
+  </si>
+  <si>
+    <t>Port 1G</t>
+  </si>
+  <si>
+    <t>Port 10G</t>
+  </si>
+  <si>
+    <t>Card Điều khiển</t>
+  </si>
+  <si>
+    <t>A9K-MOD80-SE</t>
+  </si>
+  <si>
+    <t>A9K-MOD80-TR</t>
+  </si>
+  <si>
+    <t>A9K-MOD200-TR</t>
+  </si>
+  <si>
+    <t>A9K-MPA-20X1GE</t>
+  </si>
+  <si>
+    <t>A9K-MPA-4X10GE</t>
+  </si>
+  <si>
+    <t>A9K-MPA-1X100GE</t>
+  </si>
+  <si>
+    <t>2 x A9K-RSP880-TR (Active + Standby)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2 x A9K-RSP880-LT-TR (Active + Standby)</t>
+  </si>
+  <si>
+    <t>2 x A9K-RSP440-SE (Active + Standby)</t>
+  </si>
+  <si>
+    <t>2 x ASR-9900-RP-SE (Active + Standby)</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Tên Trạm</t>
+  </si>
+  <si>
+    <t>Tên Hệ Thống</t>
+  </si>
+  <si>
+    <t>Proline LPS 12-63/130kA-TSG.TDS</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Netsure 731 A41-S8</t>
+  </si>
+  <si>
+    <t>M830B</t>
+  </si>
+  <si>
+    <t>R48-3000e3</t>
+  </si>
+  <si>
+    <t>Postef</t>
+  </si>
+  <si>
+    <t>LITHIUM V-LFP48100Ah</t>
+  </si>
+  <si>
+    <t>PROLINE LPS 12-125/200kA</t>
+  </si>
+  <si>
+    <t>Postef
+Emerson</t>
+  </si>
+  <si>
+    <t>ZXDU 68B301 V5.0
+Netsure 731 A41-S8</t>
+  </si>
+  <si>
+    <t>CSU501B
+M830B</t>
+  </si>
+  <si>
+    <t>ZXD3000
+R48-3000e3</t>
+  </si>
+  <si>
+    <t>6
+4</t>
+  </si>
+  <si>
+    <t>SAITE
+Postef</t>
+  </si>
+  <si>
+    <t>BT-MSE-300
+PNGB230000</t>
+  </si>
+  <si>
+    <t>300
+300</t>
+  </si>
+  <si>
+    <t>1
+2</t>
+  </si>
+  <si>
+    <t>15/11/2021
+05/12/2018</t>
+  </si>
+  <si>
+    <t>36
+70</t>
+  </si>
+  <si>
+    <t>Proline LPS 34-40/350</t>
+  </si>
+  <si>
+    <t>PNGB121500P</t>
+  </si>
+  <si>
+    <t>SC-LAF3P/125A</t>
+  </si>
+  <si>
+    <t>Vision
+POSTEF</t>
+  </si>
+  <si>
+    <t>CG2-400PE
+LITHIUM V-LFP48100Ah</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Proline LPS 34-40/135</t>
+  </si>
+  <si>
+    <t>Saft</t>
+  </si>
+  <si>
+    <t>MTP2800i</t>
+  </si>
+  <si>
+    <t>ACM1000i</t>
+  </si>
+  <si>
+    <t>SMi2800</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>CG2-400PE</t>
+  </si>
+  <si>
+    <t>PROLINE LPS 34-125/125</t>
+  </si>
+  <si>
+    <t>ZXDU 68B301 V5.0</t>
+  </si>
+  <si>
+    <t>CSU501B</t>
+  </si>
+  <si>
+    <t>ZXD3000</t>
+  </si>
+  <si>
+    <t>PNGB230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proline LPS 12-125/200KA
+PROLINE LPS 34-40/135
+</t>
+  </si>
+  <si>
+    <t>MTP2800I
+Emerson</t>
+  </si>
+  <si>
+    <t>HARMER SIMMONS
+Netsure 731 A41-S8</t>
+  </si>
+  <si>
+    <t>ACM1000i
+M830B</t>
+  </si>
+  <si>
+    <t>SMi2800
+R48-3000e3</t>
+  </si>
+  <si>
+    <t>4
+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAITE
+Postef
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT-MSE-300
+PNGB230000
+</t>
+  </si>
+  <si>
+    <t>2
+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/04/2021
+07/07/2017
+</t>
+  </si>
+  <si>
+    <t>53
+62</t>
+  </si>
+  <si>
+    <t>60
+120</t>
+  </si>
+  <si>
+    <t>PolyPhaser IL480-3Y-100A</t>
+  </si>
+  <si>
+    <t>Emerson
+Emerson
+Emerson</t>
+  </si>
+  <si>
+    <t>Netsure 731 A41-S8
+Netsure 731 A41-S8
+Netsure 731 A41-S8</t>
+  </si>
+  <si>
+    <t>M830B
+M830B
+M830B</t>
+  </si>
+  <si>
+    <t>R48-3000e3
+R48-3000e3
+R48-3000e3</t>
+  </si>
+  <si>
+    <t>5
+5
+5</t>
+  </si>
+  <si>
+    <t>Postef
+Postef
+Saite</t>
+  </si>
+  <si>
+    <t>PNGB230000
+PNGB230000</t>
+  </si>
+  <si>
+    <t>Proline LPS 34-125/200KA</t>
+  </si>
+  <si>
+    <t>PROLINE LPS 34-40/350</t>
+  </si>
+  <si>
+    <t>Nhãn hiệu lọc sét :</t>
+  </si>
+  <si>
+    <t>Tủ nguồn :</t>
+  </si>
+  <si>
+    <t>Chủng loại tủ nguồn :</t>
+  </si>
+  <si>
+    <t>Card điều khiển tủ nguồn :</t>
+  </si>
+  <si>
+    <t>Chủng loại REC :</t>
+  </si>
+  <si>
+    <t>Số REC lắp đặt:</t>
+  </si>
+  <si>
+    <t>Ắc Qui :</t>
+  </si>
+  <si>
+    <t>Chủng loại Ắc Qui :</t>
+  </si>
+  <si>
+    <t>Dung lượng (Ah) :</t>
+  </si>
+  <si>
+    <t>Số tổ lắp đặt :</t>
+  </si>
+  <si>
+    <t>Ngày lắp đặt:</t>
+  </si>
+  <si>
+    <t>Tải DC (A)</t>
+  </si>
+  <si>
+    <t>Thời gian lưu điện (phút)</t>
+  </si>
+  <si>
+    <t>Postef
+Vision
+Posmax</t>
+  </si>
+  <si>
+    <t>PNGB230000
+CG2-500PE
+PNGB121500P</t>
+  </si>
+  <si>
+    <t>300
+500
+150</t>
+  </si>
+  <si>
+    <t>2
+2
+2</t>
+  </si>
+  <si>
+    <t>12/09/2018
+05/04/2021
+06/07/2018</t>
+  </si>
+  <si>
+    <t>90,9
+34,0
+16,0</t>
+  </si>
+  <si>
+    <t>120
+120
+120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -195,12 +571,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,13 +584,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,245 +916,1130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:AA13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.25" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="7.75" customWidth="1"/>
+    <col min="22" max="22" width="17.25" customWidth="1"/>
+    <col min="23" max="23" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="11.5" customWidth="1"/>
+    <col min="26" max="26" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="4">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="4">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="5">
+        <v>5</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="5">
+        <v>5</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="5">
+        <v>3</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="5">
+        <v>100</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>45427</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="5">
+        <v>5</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" s="5">
+        <v>150</v>
+      </c>
+      <c r="X6" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>43637</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="5">
+        <v>5</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="W7" s="5">
+        <v>100</v>
+      </c>
+      <c r="X7" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>45420</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>57.7</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="5">
+        <v>5</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W8" s="5">
+        <v>400</v>
+      </c>
+      <c r="X8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>43829</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D9" s="4">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+      <c r="M9" s="4">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="5">
+        <v>5</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9" s="5">
+        <v>300</v>
+      </c>
+      <c r="X9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>43752</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>65.08</v>
+      </c>
+      <c r="AA9" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="10" spans="1:27" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4">
+        <v>80</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="4">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="K11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="4">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M11" s="4">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>42923</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>60.7</v>
+      </c>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T12" s="5">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W12" s="5">
+        <v>300</v>
+      </c>
+      <c r="X12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>42923</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="13" spans="1:27" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>32</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="5">
+        <v>3</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="5">
+        <v>100</v>
+      </c>
+      <c r="X13" s="5">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
+      <c r="Y13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>71.5</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="14" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:N1">
+    <sortState ref="A2:N13">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>